--- a/Zeiterfassung.xlsx
+++ b/Zeiterfassung.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johannes\Desktop\Project PI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johannes\Desktop\ProjectPI_Git\SensitivesKuscheltier\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -67,9 +67,6 @@
     <t>Projektantrag fertiggestellt</t>
   </si>
   <si>
-    <t>Schaltplan fertiggestellt</t>
-  </si>
-  <si>
     <t>Programmierung abgeschlossen</t>
   </si>
   <si>
@@ -96,6 +93,9 @@
   <si>
     <t>Wordpress vorbereitet (für den Online Blog</t>
   </si>
+  <si>
+    <t>Schaltplan fertiggestellt (verschoben)                        Logo designed                 Protokoll welches Geräusch wann</t>
+  </si>
 </sst>
 </file>
 
@@ -103,7 +103,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="mmmm\ yyyy"/>
-    <numFmt numFmtId="165" formatCode="[$-407]ddd"/>
+    <numFmt numFmtId="0" formatCode="[$-407]ddd"/>
     <numFmt numFmtId="166" formatCode="dd/\ mmmm"/>
     <numFmt numFmtId="167" formatCode="h:mm;@"/>
   </numFmts>
@@ -308,7 +308,7 @@
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -329,7 +329,7 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -356,7 +356,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1755,8 +1755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1960,7 +1960,7 @@
         <v>42044</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D15" s="16"/>
       <c r="E15" s="17"/>
@@ -1978,7 +1978,7 @@
         <v>42045</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="12">
@@ -2000,7 +2000,7 @@
         <v>42046</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="12">
@@ -2080,7 +2080,7 @@
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
     </row>
-    <row r="22" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" s="13">
         <f t="shared" si="0"/>
         <v>42051</v>
@@ -2090,13 +2090,21 @@
         <v>42051</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D22" s="16"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
+      <c r="E22" s="17">
+        <v>2</v>
+      </c>
+      <c r="F22" s="17">
+        <v>2</v>
+      </c>
+      <c r="G22" s="17">
+        <v>2</v>
+      </c>
+      <c r="H22" s="17">
+        <v>2</v>
+      </c>
     </row>
     <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
@@ -2298,7 +2306,7 @@
       <c r="C35" s="34"/>
       <c r="D35" s="20">
         <f>SUM(E4:H34)</f>
-        <v>0.6</v>
+        <v>8.6</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
@@ -2564,7 +2572,7 @@
         <v>42072</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D15" s="16"/>
       <c r="E15" s="17"/>
@@ -2742,7 +2750,7 @@
         <v>42083</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D26" s="16"/>
       <c r="E26" s="17"/>
@@ -2920,7 +2928,7 @@
         <v>42094</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D37" s="16"/>
       <c r="E37" s="27"/>
@@ -3294,7 +3302,7 @@
         <v>42109</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D21" s="16"/>
       <c r="E21" s="17"/>
@@ -3835,7 +3843,7 @@
         <v>42135</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D17" s="16"/>
       <c r="E17" s="17"/>
@@ -4061,7 +4069,7 @@
         <v>42149</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D31" s="16"/>
       <c r="E31" s="17"/>

--- a/Zeiterfassung.xlsx
+++ b/Zeiterfassung.xlsx
@@ -91,10 +91,10 @@
     <t>Komponenten erhalten (Raspberry A +, Kamera, WiFi-Stick, SD-Card (für OS), Plüschtier unterwegs (UK Lieferung)</t>
   </si>
   <si>
-    <t>Wordpress vorbereitet (für den Online Blog</t>
+    <t>Schaltplan fertiggestellt (verschoben)                        Logo designed                 Protokoll welches Geräusch wann</t>
   </si>
   <si>
-    <t>Schaltplan fertiggestellt (verschoben)                        Logo designed                 Protokoll welches Geräusch wann</t>
+    <t>Wordpress vorbereitet (für den Online Blog                   OPV Testschaltung</t>
   </si>
 </sst>
 </file>
@@ -103,7 +103,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="mmmm\ yyyy"/>
-    <numFmt numFmtId="0" formatCode="[$-407]ddd"/>
+    <numFmt numFmtId="165" formatCode="[$-407]ddd"/>
     <numFmt numFmtId="166" formatCode="dd/\ mmmm"/>
     <numFmt numFmtId="167" formatCode="h:mm;@"/>
   </numFmts>
@@ -291,24 +291,24 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="38">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -329,7 +329,7 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -356,13 +356,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -374,31 +374,31 @@
     <xf numFmtId="2" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1755,8 +1755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1968,7 +1968,7 @@
       <c r="G15" s="17"/>
       <c r="H15" s="17"/>
     </row>
-    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <f t="shared" si="0"/>
         <v>42045</v>
@@ -1978,16 +1978,20 @@
         <v>42045</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F16" s="12">
+        <v>2</v>
+      </c>
+      <c r="G16" s="12">
+        <v>2</v>
+      </c>
       <c r="H16" s="12">
-        <v>0.1</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.25">
@@ -2090,7 +2094,7 @@
         <v>42051</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D22" s="16"/>
       <c r="E22" s="17">
@@ -2306,7 +2310,7 @@
       <c r="C35" s="34"/>
       <c r="D35" s="20">
         <f>SUM(E4:H34)</f>
-        <v>8.6</v>
+        <v>17</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>

--- a/Zeiterfassung.xlsx
+++ b/Zeiterfassung.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="25">
   <si>
     <t>Datum</t>
   </si>
@@ -95,6 +95,12 @@
   </si>
   <si>
     <t>Wordpress vorbereitet (für den Online Blog                   OPV Testschaltung</t>
+  </si>
+  <si>
+    <t>Lastenheft fertiggestellt</t>
+  </si>
+  <si>
+    <t>Einrichtung Access Point</t>
   </si>
 </sst>
 </file>
@@ -1755,8 +1761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2183,12 +2189,22 @@
         <f t="shared" si="1"/>
         <v>42056</v>
       </c>
-      <c r="C27" s="11"/>
+      <c r="C27" s="11" t="s">
+        <v>23</v>
+      </c>
       <c r="D27" s="9"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
+      <c r="E27" s="12">
+        <v>2</v>
+      </c>
+      <c r="F27" s="12">
+        <v>2</v>
+      </c>
+      <c r="G27" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="H27" s="12">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
@@ -2215,12 +2231,22 @@
         <f t="shared" si="1"/>
         <v>42058</v>
       </c>
-      <c r="C29" s="11"/>
+      <c r="C29" s="11" t="s">
+        <v>24</v>
+      </c>
       <c r="D29" s="9"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
+      <c r="E29" s="12">
+        <v>2</v>
+      </c>
+      <c r="F29" s="12">
+        <v>2</v>
+      </c>
+      <c r="G29" s="12">
+        <v>0</v>
+      </c>
+      <c r="H29" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
@@ -2310,7 +2336,7 @@
       <c r="C35" s="34"/>
       <c r="D35" s="20">
         <f>SUM(E4:H34)</f>
-        <v>17</v>
+        <v>25.6</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>

--- a/Zeiterfassung.xlsx
+++ b/Zeiterfassung.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="26">
   <si>
     <t>Datum</t>
   </si>
@@ -100,7 +100,10 @@
     <t>Lastenheft fertiggestellt</t>
   </si>
   <si>
-    <t>Einrichtung Access Point</t>
+    <t>Einrichtung Access Point, Wordpress</t>
+  </si>
+  <si>
+    <t>Access Point</t>
   </si>
 </sst>
 </file>
@@ -414,7 +417,40 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="33">
+  <dxfs count="36">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1080,7 +1116,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K49"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
@@ -1719,32 +1755,32 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="A7:D37">
-    <cfRule type="expression" dxfId="32" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="7" stopIfTrue="1">
       <formula>WEEKDAY($A7,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7 E9:E37">
-    <cfRule type="expression" dxfId="31" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="6" stopIfTrue="1">
       <formula>WEEKDAY($A7,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7 F9:F37">
-    <cfRule type="expression" dxfId="30" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="5" stopIfTrue="1">
       <formula>WEEKDAY($A7,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7 G9:G37">
-    <cfRule type="expression" dxfId="29" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="4" stopIfTrue="1">
       <formula>WEEKDAY($A7,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7 H9:H37">
-    <cfRule type="expression" dxfId="28" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="3" stopIfTrue="1">
       <formula>WEEKDAY($A7,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8:H8">
-    <cfRule type="expression" dxfId="27" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="1" stopIfTrue="1">
       <formula>WEEKDAY($A8,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1761,8 +1797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="J54" sqref="J53:J54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2222,7 +2258,7 @@
       <c r="G28" s="12"/>
       <c r="H28" s="12"/>
     </row>
-    <row r="29" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <f t="shared" si="0"/>
         <v>42058</v>
@@ -2236,33 +2272,43 @@
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F29" s="12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G29" s="12">
         <v>0</v>
       </c>
       <c r="H29" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30" s="6">
+        <f t="shared" si="0"/>
+        <v>42059</v>
+      </c>
+      <c r="B30" s="7">
+        <f t="shared" si="1"/>
+        <v>42059</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="9"/>
+      <c r="E30" s="12">
+        <v>3</v>
+      </c>
+      <c r="F30" s="12">
+        <v>1</v>
+      </c>
+      <c r="G30" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="6">
-        <f t="shared" si="0"/>
-        <v>42059</v>
-      </c>
-      <c r="B30" s="7">
-        <f t="shared" si="1"/>
-        <v>42059</v>
-      </c>
-      <c r="C30" s="18"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
+      <c r="H30" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
@@ -2336,7 +2382,7 @@
       <c r="C35" s="34"/>
       <c r="D35" s="20">
         <f>SUM(E4:H34)</f>
-        <v>25.6</v>
+        <v>34.6</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
@@ -2352,38 +2398,43 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="A7:B34">
-    <cfRule type="expression" dxfId="26" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="8" stopIfTrue="1">
       <formula>WEEKDAY($A7,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:D34">
-    <cfRule type="expression" dxfId="25" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="7" stopIfTrue="1">
       <formula>WEEKDAY($A7,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E7 E9:E34">
-    <cfRule type="expression" dxfId="24" priority="5" stopIfTrue="1">
+  <conditionalFormatting sqref="E7 E9:E29 E31:E34">
+    <cfRule type="expression" dxfId="27" priority="6" stopIfTrue="1">
       <formula>WEEKDAY($A7,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F7 F9:F34">
-    <cfRule type="expression" dxfId="23" priority="4" stopIfTrue="1">
+  <conditionalFormatting sqref="F7 F9:F29 F31:F34">
+    <cfRule type="expression" dxfId="26" priority="5" stopIfTrue="1">
       <formula>WEEKDAY($A7,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7 G9:G34">
-    <cfRule type="expression" dxfId="22" priority="3" stopIfTrue="1">
+  <conditionalFormatting sqref="G7 G9:G29 G31:G34">
+    <cfRule type="expression" dxfId="25" priority="4" stopIfTrue="1">
       <formula>WEEKDAY($A7,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H7 H9:H34">
-    <cfRule type="expression" dxfId="21" priority="2" stopIfTrue="1">
+  <conditionalFormatting sqref="H7 H9:H29 H31:H34">
+    <cfRule type="expression" dxfId="24" priority="3" stopIfTrue="1">
       <formula>WEEKDAY($A7,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8:H8">
-    <cfRule type="expression" dxfId="20" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="2" stopIfTrue="1">
       <formula>WEEKDAY($A8,2)&gt;5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30:H30">
+    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
+      <formula>WEEKDAY($A30,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
@@ -2986,37 +3037,37 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="A7:B37">
-    <cfRule type="expression" dxfId="19" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="7" stopIfTrue="1">
       <formula>WEEKDAY($A7,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:D37">
-    <cfRule type="expression" dxfId="18" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="6" stopIfTrue="1">
       <formula>WEEKDAY($A7,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7 E9:E37">
-    <cfRule type="expression" dxfId="17" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="5" stopIfTrue="1">
       <formula>WEEKDAY($A7,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7 F9:F37">
-    <cfRule type="expression" dxfId="16" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="4" stopIfTrue="1">
       <formula>WEEKDAY($A7,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7 G9:G37">
-    <cfRule type="expression" dxfId="15" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="3" stopIfTrue="1">
       <formula>WEEKDAY($A7,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7 H9:H37">
-    <cfRule type="expression" dxfId="14" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="2" stopIfTrue="1">
       <formula>WEEKDAY($A7,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8:H8">
-    <cfRule type="expression" dxfId="13" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="1" stopIfTrue="1">
       <formula>WEEKDAY($A8,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3599,32 +3650,32 @@
     <mergeCell ref="A37:C37"/>
   </mergeCells>
   <conditionalFormatting sqref="A7:D36 E9:H36">
-    <cfRule type="expression" dxfId="12" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="7" stopIfTrue="1">
       <formula>WEEKDAY($A7,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="expression" dxfId="11" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="5" stopIfTrue="1">
       <formula>WEEKDAY($A7,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="expression" dxfId="10" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="4" stopIfTrue="1">
       <formula>WEEKDAY($A7,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="expression" dxfId="9" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="3" stopIfTrue="1">
       <formula>WEEKDAY($A7,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="expression" dxfId="8" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="2" stopIfTrue="1">
       <formula>WEEKDAY($A7,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8:H8">
-    <cfRule type="expression" dxfId="7" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="1" stopIfTrue="1">
       <formula>WEEKDAY($A8,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4226,37 +4277,37 @@
     <mergeCell ref="A38:C38"/>
   </mergeCells>
   <conditionalFormatting sqref="A7:B37">
-    <cfRule type="expression" dxfId="6" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="7" stopIfTrue="1">
       <formula>WEEKDAY($A7,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:D37">
-    <cfRule type="expression" dxfId="5" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="6" stopIfTrue="1">
       <formula>WEEKDAY($A7,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7 E9:E37">
-    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="5" stopIfTrue="1">
       <formula>WEEKDAY($A7,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7 F9:F37">
-    <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="4" stopIfTrue="1">
       <formula>WEEKDAY($A7,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7 G9:G37">
-    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="3" stopIfTrue="1">
       <formula>WEEKDAY($A7,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7 H9:H37">
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="2" stopIfTrue="1">
       <formula>WEEKDAY($A7,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8:H8">
-    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
       <formula>WEEKDAY($A8,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Zeiterfassung.xlsx
+++ b/Zeiterfassung.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johannes\Desktop\ProjectPI_Git\SensitivesKuscheltier\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumente\Schule\SensitivesKuscheltier\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
   <si>
     <t>Datum</t>
   </si>
@@ -104,6 +104,9 @@
   </si>
   <si>
     <t>Access Point</t>
+  </si>
+  <si>
+    <t>Machbarkeitsstudie begonnen(Sivan),</t>
   </si>
 </sst>
 </file>
@@ -415,31 +418,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="36">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="34">
     <dxf>
       <font>
         <b/>
@@ -1120,7 +1101,7 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" style="2" customWidth="1"/>
     <col min="2" max="2" width="14.109375" style="2" customWidth="1"/>
@@ -1755,32 +1736,32 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="A7:D37">
-    <cfRule type="expression" dxfId="35" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="7" stopIfTrue="1">
       <formula>WEEKDAY($A7,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7 E9:E37">
-    <cfRule type="expression" dxfId="34" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="6" stopIfTrue="1">
       <formula>WEEKDAY($A7,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7 F9:F37">
-    <cfRule type="expression" dxfId="33" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="5" stopIfTrue="1">
       <formula>WEEKDAY($A7,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7 G9:G37">
-    <cfRule type="expression" dxfId="32" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="4" stopIfTrue="1">
       <formula>WEEKDAY($A7,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7 H9:H37">
-    <cfRule type="expression" dxfId="31" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="3" stopIfTrue="1">
       <formula>WEEKDAY($A7,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8:H8">
-    <cfRule type="expression" dxfId="30" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="1" stopIfTrue="1">
       <formula>WEEKDAY($A8,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1797,11 +1778,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="J54" sqref="J53:J54"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="14.109375" customWidth="1"/>
@@ -2310,7 +2291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <f t="shared" si="0"/>
         <v>42060</v>
@@ -2319,11 +2300,15 @@
         <f t="shared" si="1"/>
         <v>42060</v>
       </c>
-      <c r="C31" s="11"/>
+      <c r="C31" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="D31" s="9"/>
       <c r="E31" s="12"/>
       <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
+      <c r="G31" s="12">
+        <v>0.5</v>
+      </c>
       <c r="H31" s="12"/>
     </row>
     <row r="32" spans="1:8" ht="15" x14ac:dyDescent="0.25">
@@ -2382,7 +2367,7 @@
       <c r="C35" s="34"/>
       <c r="D35" s="20">
         <f>SUM(E4:H34)</f>
-        <v>34.6</v>
+        <v>35.1</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
@@ -2398,42 +2383,42 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="A7:B34">
-    <cfRule type="expression" dxfId="29" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="8" stopIfTrue="1">
       <formula>WEEKDAY($A7,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:D34">
-    <cfRule type="expression" dxfId="28" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="7" stopIfTrue="1">
       <formula>WEEKDAY($A7,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7 E9:E29 E31:E34">
-    <cfRule type="expression" dxfId="27" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="6" stopIfTrue="1">
       <formula>WEEKDAY($A7,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7 F9:F29 F31:F34">
-    <cfRule type="expression" dxfId="26" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="5" stopIfTrue="1">
       <formula>WEEKDAY($A7,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7 G9:G29 G31:G34">
-    <cfRule type="expression" dxfId="25" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="4" stopIfTrue="1">
       <formula>WEEKDAY($A7,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7 H9:H29 H31:H34">
-    <cfRule type="expression" dxfId="24" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="3" stopIfTrue="1">
       <formula>WEEKDAY($A7,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8:H8">
-    <cfRule type="expression" dxfId="23" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="2" stopIfTrue="1">
       <formula>WEEKDAY($A8,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30:H30">
-    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="1" stopIfTrue="1">
       <formula>WEEKDAY($A30,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2451,7 +2436,7 @@
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" style="2" customWidth="1"/>
     <col min="2" max="2" width="14.109375" style="2" customWidth="1"/>
@@ -3037,37 +3022,37 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="A7:B37">
-    <cfRule type="expression" dxfId="22" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="7" stopIfTrue="1">
       <formula>WEEKDAY($A7,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:D37">
-    <cfRule type="expression" dxfId="21" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="6" stopIfTrue="1">
       <formula>WEEKDAY($A7,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7 E9:E37">
-    <cfRule type="expression" dxfId="20" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="5" stopIfTrue="1">
       <formula>WEEKDAY($A7,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7 F9:F37">
-    <cfRule type="expression" dxfId="19" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="4" stopIfTrue="1">
       <formula>WEEKDAY($A7,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7 G9:G37">
-    <cfRule type="expression" dxfId="18" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="3" stopIfTrue="1">
       <formula>WEEKDAY($A7,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7 H9:H37">
-    <cfRule type="expression" dxfId="17" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="2" stopIfTrue="1">
       <formula>WEEKDAY($A7,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8:H8">
-    <cfRule type="expression" dxfId="16" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="1" stopIfTrue="1">
       <formula>WEEKDAY($A8,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3085,7 +3070,7 @@
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" style="2" customWidth="1"/>
     <col min="2" max="2" width="14.109375" style="2" customWidth="1"/>
@@ -3650,32 +3635,32 @@
     <mergeCell ref="A37:C37"/>
   </mergeCells>
   <conditionalFormatting sqref="A7:D36 E9:H36">
-    <cfRule type="expression" dxfId="15" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="7" stopIfTrue="1">
       <formula>WEEKDAY($A7,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="expression" dxfId="14" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="5" stopIfTrue="1">
       <formula>WEEKDAY($A7,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="expression" dxfId="13" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="4" stopIfTrue="1">
       <formula>WEEKDAY($A7,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="expression" dxfId="12" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="3" stopIfTrue="1">
       <formula>WEEKDAY($A7,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="expression" dxfId="11" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="2" stopIfTrue="1">
       <formula>WEEKDAY($A7,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8:H8">
-    <cfRule type="expression" dxfId="10" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="1" stopIfTrue="1">
       <formula>WEEKDAY($A8,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3691,7 +3676,7 @@
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="14.109375" customWidth="1"/>
@@ -4277,37 +4262,37 @@
     <mergeCell ref="A38:C38"/>
   </mergeCells>
   <conditionalFormatting sqref="A7:B37">
-    <cfRule type="expression" dxfId="9" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="7" stopIfTrue="1">
       <formula>WEEKDAY($A7,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:D37">
-    <cfRule type="expression" dxfId="8" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="6" stopIfTrue="1">
       <formula>WEEKDAY($A7,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7 E9:E37">
-    <cfRule type="expression" dxfId="7" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
       <formula>WEEKDAY($A7,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7 F9:F37">
-    <cfRule type="expression" dxfId="6" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
       <formula>WEEKDAY($A7,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7 G9:G37">
-    <cfRule type="expression" dxfId="5" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
       <formula>WEEKDAY($A7,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7 H9:H37">
-    <cfRule type="expression" dxfId="4" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>WEEKDAY($A7,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8:H8">
-    <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>WEEKDAY($A8,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Zeiterfassung.xlsx
+++ b/Zeiterfassung.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="228" windowWidth="18540" windowHeight="8892" tabRatio="882" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="228" windowWidth="18540" windowHeight="8892" tabRatio="882" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Januar" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="28">
   <si>
     <t>Datum</t>
   </si>
@@ -106,7 +106,10 @@
     <t>Access Point</t>
   </si>
   <si>
-    <t>Machbarkeitsstudie begonnen(Sivan),</t>
+    <t>Machbarkeitsstudie begonnen(Sivan)</t>
+  </si>
+  <si>
+    <t>Machbarkeitsstudie vollendet(Sivan)</t>
   </si>
 </sst>
 </file>
@@ -1778,8 +1781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2432,8 +2435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H43"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2509,11 +2512,15 @@
         <f>A7</f>
         <v>42064</v>
       </c>
-      <c r="C7" s="8"/>
+      <c r="C7" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="D7" s="9"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
+      <c r="G7" s="10">
+        <v>1</v>
+      </c>
       <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.25">
@@ -3010,7 +3017,7 @@
       <c r="C38" s="34"/>
       <c r="D38" s="20">
         <f>SUM(E7:H37)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Zeiterfassung.xlsx
+++ b/Zeiterfassung.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumente\Schule\SensitivesKuscheltier\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johannes\Desktop\ProjectPI_Git\SensitivesKuscheltier\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -106,10 +106,10 @@
     <t>Access Point</t>
   </si>
   <si>
-    <t>Machbarkeitsstudie begonnen(Sivan)</t>
+    <t>Machbarkeitsstudie begonnen</t>
   </si>
   <si>
-    <t>Machbarkeitsstudie vollendet(Sivan)</t>
+    <t xml:space="preserve">Machbarkeitsstudie </t>
   </si>
 </sst>
 </file>
@@ -421,7 +421,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="34">
     <dxf>
@@ -1104,7 +1104,7 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" style="2" customWidth="1"/>
     <col min="2" max="2" width="14.109375" style="2" customWidth="1"/>
@@ -1782,10 +1782,10 @@
   <dimension ref="A2:H41"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="14.109375" customWidth="1"/>
@@ -2307,7 +2307,9 @@
         <v>26</v>
       </c>
       <c r="D31" s="9"/>
-      <c r="E31" s="12"/>
+      <c r="E31" s="12">
+        <v>2.5</v>
+      </c>
       <c r="F31" s="12"/>
       <c r="G31" s="12">
         <v>0.5</v>
@@ -2370,7 +2372,7 @@
       <c r="C35" s="34"/>
       <c r="D35" s="20">
         <f>SUM(E4:H34)</f>
-        <v>35.1</v>
+        <v>37.6</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
@@ -2435,11 +2437,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" style="2" customWidth="1"/>
     <col min="2" max="2" width="14.109375" style="2" customWidth="1"/>
@@ -2516,7 +2518,9 @@
         <v>27</v>
       </c>
       <c r="D7" s="9"/>
-      <c r="E7" s="10"/>
+      <c r="E7" s="10">
+        <v>1.5</v>
+      </c>
       <c r="F7" s="10"/>
       <c r="G7" s="10">
         <v>1</v>
@@ -3017,7 +3021,7 @@
       <c r="C38" s="34"/>
       <c r="D38" s="20">
         <f>SUM(E7:H37)</f>
-        <v>1</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3077,7 +3081,7 @@
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" style="2" customWidth="1"/>
     <col min="2" max="2" width="14.109375" style="2" customWidth="1"/>
@@ -3683,7 +3687,7 @@
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="14.109375" customWidth="1"/>

--- a/Zeiterfassung.xlsx
+++ b/Zeiterfassung.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johannes\Desktop\ProjectPI_Git\SensitivesKuscheltier\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumente\Schule\SensitivesKuscheltier\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="29">
   <si>
     <t>Datum</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t xml:space="preserve">Machbarkeitsstudie </t>
+  </si>
+  <si>
+    <t>Sounds bearbeitet</t>
   </si>
 </sst>
 </file>
@@ -421,7 +424,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="34">
     <dxf>
@@ -1104,7 +1107,7 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" style="2" customWidth="1"/>
     <col min="2" max="2" width="14.109375" style="2" customWidth="1"/>
@@ -1781,11 +1784,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H41"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="14.109375" customWidth="1"/>
@@ -2437,11 +2440,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" style="2" customWidth="1"/>
     <col min="2" max="2" width="14.109375" style="2" customWidth="1"/>
@@ -2552,11 +2555,15 @@
         <f t="shared" ref="B9:B37" si="1">B8+1</f>
         <v>42066</v>
       </c>
-      <c r="C9" s="11"/>
+      <c r="C9" s="11" t="s">
+        <v>28</v>
+      </c>
       <c r="D9" s="9"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
+      <c r="G9" s="12">
+        <v>1</v>
+      </c>
       <c r="H9" s="12"/>
     </row>
     <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.25">
@@ -3021,7 +3028,7 @@
       <c r="C38" s="34"/>
       <c r="D38" s="20">
         <f>SUM(E7:H37)</f>
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3081,7 +3088,7 @@
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" style="2" customWidth="1"/>
     <col min="2" max="2" width="14.109375" style="2" customWidth="1"/>
@@ -3687,7 +3694,7 @@
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="14.109375" customWidth="1"/>

--- a/Zeiterfassung.xlsx
+++ b/Zeiterfassung.xlsx
@@ -112,7 +112,7 @@
     <t xml:space="preserve">Machbarkeitsstudie </t>
   </si>
   <si>
-    <t>Sounds bearbeitet</t>
+    <t>Sounds bearbeitet, Wordpress bearbeitet</t>
   </si>
 </sst>
 </file>
@@ -2441,7 +2441,7 @@
   <dimension ref="A2:H43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2562,9 +2562,11 @@
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12">
+        <v>2</v>
+      </c>
+      <c r="H9" s="12">
         <v>1</v>
       </c>
-      <c r="H9" s="12"/>
     </row>
     <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
@@ -3028,7 +3030,7 @@
       <c r="C38" s="34"/>
       <c r="D38" s="20">
         <f>SUM(E7:H37)</f>
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Zeiterfassung.xlsx
+++ b/Zeiterfassung.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumente\Schule\SensitivesKuscheltier\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johannes\Desktop\ProjectPI_Git\SensitivesKuscheltier\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -424,7 +424,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="34">
     <dxf>
@@ -1107,7 +1107,7 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" style="2" customWidth="1"/>
     <col min="2" max="2" width="14.109375" style="2" customWidth="1"/>
@@ -1788,7 +1788,7 @@
       <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="14.109375" customWidth="1"/>
@@ -2441,10 +2441,10 @@
   <dimension ref="A2:H43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" style="2" customWidth="1"/>
     <col min="2" max="2" width="14.109375" style="2" customWidth="1"/>
@@ -2559,8 +2559,12 @@
         <v>28</v>
       </c>
       <c r="D9" s="9"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
+      <c r="E9" s="12">
+        <v>2</v>
+      </c>
+      <c r="F9" s="12">
+        <v>2</v>
+      </c>
       <c r="G9" s="12">
         <v>2</v>
       </c>
@@ -3030,7 +3034,7 @@
       <c r="C38" s="34"/>
       <c r="D38" s="20">
         <f>SUM(E7:H37)</f>
-        <v>5.5</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3090,7 +3094,7 @@
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" style="2" customWidth="1"/>
     <col min="2" max="2" width="14.109375" style="2" customWidth="1"/>
@@ -3696,7 +3700,7 @@
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="14.109375" customWidth="1"/>

--- a/Zeiterfassung.xlsx
+++ b/Zeiterfassung.xlsx
@@ -67,9 +67,6 @@
     <t>Projektantrag fertiggestellt</t>
   </si>
   <si>
-    <t>Programmierung abgeschlossen</t>
-  </si>
-  <si>
     <t>Testen abgeschlossen</t>
   </si>
   <si>
@@ -114,6 +111,19 @@
   <si>
     <t>Sounds bearbeitet, Wordpress bearbeitet</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Programmierung abgeschlossen </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">                              Machbarkeitsstudie fertig</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -125,7 +135,7 @@
     <numFmt numFmtId="166" formatCode="dd/\ mmmm"/>
     <numFmt numFmtId="167" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -172,6 +182,12 @@
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -311,7 +327,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -421,6 +437,9 @@
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1989,7 +2008,7 @@
         <v>42044</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D15" s="16"/>
       <c r="E15" s="17"/>
@@ -2007,7 +2026,7 @@
         <v>42045</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="12">
@@ -2033,7 +2052,7 @@
         <v>42046</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="12">
@@ -2123,7 +2142,7 @@
         <v>42051</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D22" s="16"/>
       <c r="E22" s="17">
@@ -2213,7 +2232,7 @@
         <v>42056</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="12">
@@ -2255,7 +2274,7 @@
         <v>42058</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="12">
@@ -2281,7 +2300,7 @@
         <v>42059</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="12">
@@ -2307,7 +2326,7 @@
         <v>42060</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="12">
@@ -2441,7 +2460,7 @@
   <dimension ref="A2:H43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2518,17 +2537,21 @@
         <v>42064</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="10">
         <v>1.5</v>
       </c>
-      <c r="F7" s="10"/>
+      <c r="F7" s="10">
+        <v>0</v>
+      </c>
       <c r="G7" s="10">
         <v>1</v>
       </c>
-      <c r="H7" s="10"/>
+      <c r="H7" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
@@ -2556,7 +2579,7 @@
         <v>42066</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="12">
@@ -2652,7 +2675,7 @@
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
     </row>
-    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
         <f t="shared" si="0"/>
         <v>42072</v>
@@ -2661,14 +2684,22 @@
         <f t="shared" si="1"/>
         <v>42072</v>
       </c>
-      <c r="C15" s="15" t="s">
-        <v>13</v>
+      <c r="C15" s="38" t="s">
+        <v>28</v>
       </c>
       <c r="D15" s="16"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
+      <c r="E15" s="17">
+        <v>2</v>
+      </c>
+      <c r="F15" s="17">
+        <v>2</v>
+      </c>
+      <c r="G15" s="17">
+        <v>0</v>
+      </c>
+      <c r="H15" s="17">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
@@ -2840,7 +2871,7 @@
         <v>42083</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D26" s="16"/>
       <c r="E26" s="17"/>
@@ -3018,7 +3049,7 @@
         <v>42094</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D37" s="16"/>
       <c r="E37" s="27"/>
@@ -3034,7 +3065,7 @@
       <c r="C38" s="34"/>
       <c r="D38" s="20">
         <f>SUM(E7:H37)</f>
-        <v>9.5</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3392,7 +3423,7 @@
         <v>42109</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D21" s="16"/>
       <c r="E21" s="17"/>
@@ -3933,7 +3964,7 @@
         <v>42135</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D17" s="16"/>
       <c r="E17" s="17"/>
@@ -4159,7 +4190,7 @@
         <v>42149</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D31" s="16"/>
       <c r="E31" s="17"/>

--- a/Zeiterfassung.xlsx
+++ b/Zeiterfassung.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="30">
   <si>
     <t>Datum</t>
   </si>
@@ -123,6 +123,9 @@
       </rPr>
       <t xml:space="preserve">                              Machbarkeitsstudie fertig</t>
     </r>
+  </si>
+  <si>
+    <t>Testschaltung mit LED</t>
   </si>
 </sst>
 </file>
@@ -411,6 +414,9 @@
     <xf numFmtId="165" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="167" fontId="9" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="165" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -437,9 +443,6 @@
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1122,8 +1125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K49"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1137,29 +1140,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="21" x14ac:dyDescent="0.4">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
     </row>
     <row r="3" spans="1:11" ht="21" x14ac:dyDescent="0.4">
-      <c r="A3" s="31">
+      <c r="A3" s="32">
         <f>A7</f>
         <v>42005</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
     </row>
     <row r="4" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
@@ -1710,11 +1713,11 @@
       <c r="H37" s="26"/>
     </row>
     <row r="38" spans="1:8" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="32" t="s">
+      <c r="A38" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B38" s="33"/>
-      <c r="C38" s="34"/>
+      <c r="B38" s="34"/>
+      <c r="C38" s="35"/>
       <c r="D38" s="20">
         <f>SUM(E7:H37)</f>
         <v>2.6</v>
@@ -1803,7 +1806,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H41"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A26" workbookViewId="0">
       <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
@@ -1816,29 +1819,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.4">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
     </row>
     <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.4">
-      <c r="A3" s="37">
+      <c r="A3" s="38">
         <f>A7</f>
         <v>42036</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
     </row>
     <row r="4" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
@@ -2387,11 +2390,11 @@
       <c r="H34" s="12"/>
     </row>
     <row r="35" spans="1:8" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="32" t="s">
+      <c r="A35" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B35" s="33"/>
-      <c r="C35" s="34"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="35"/>
       <c r="D35" s="20">
         <f>SUM(E4:H34)</f>
         <v>37.6</v>
@@ -2459,8 +2462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="94" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2473,29 +2476,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.4">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
     </row>
     <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.4">
-      <c r="A3" s="31">
+      <c r="A3" s="32">
         <f>A7</f>
         <v>42064</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
     </row>
     <row r="4" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
@@ -2684,7 +2687,7 @@
         <f t="shared" si="1"/>
         <v>42072</v>
       </c>
-      <c r="C15" s="38" t="s">
+      <c r="C15" s="29" t="s">
         <v>28</v>
       </c>
       <c r="D15" s="16"/>
@@ -2710,12 +2713,22 @@
         <f t="shared" si="1"/>
         <v>42073</v>
       </c>
-      <c r="C16" s="11"/>
+      <c r="C16" s="11" t="s">
+        <v>29</v>
+      </c>
       <c r="D16" s="9"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
+      <c r="E16" s="12">
+        <v>2</v>
+      </c>
+      <c r="F16" s="12">
+        <v>2</v>
+      </c>
+      <c r="G16" s="12">
+        <v>2</v>
+      </c>
+      <c r="H16" s="12">
+        <v>2</v>
+      </c>
     </row>
     <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
@@ -3058,14 +3071,14 @@
       <c r="H37" s="27"/>
     </row>
     <row r="38" spans="1:8" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="32" t="s">
+      <c r="A38" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B38" s="33"/>
-      <c r="C38" s="34"/>
+      <c r="B38" s="34"/>
+      <c r="C38" s="35"/>
       <c r="D38" s="20">
         <f>SUM(E7:H37)</f>
-        <v>13.5</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3135,29 +3148,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.4">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
     </row>
     <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.4">
-      <c r="A3" s="31">
+      <c r="A3" s="32">
         <f>A7</f>
         <v>42095</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
     </row>
     <row r="4" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
@@ -3672,11 +3685,11 @@
       <c r="H36" s="12"/>
     </row>
     <row r="37" spans="1:8" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="32" t="s">
+      <c r="A37" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B37" s="33"/>
-      <c r="C37" s="34"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="35"/>
       <c r="D37" s="20">
         <f>SUM(E6:H36)</f>
         <v>0</v>
@@ -3740,29 +3753,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.4">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
     </row>
     <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.4">
-      <c r="A3" s="37">
+      <c r="A3" s="38">
         <f>A7</f>
         <v>42125</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
     </row>
     <row r="4" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
@@ -4295,11 +4308,11 @@
       <c r="H37" s="26"/>
     </row>
     <row r="38" spans="1:8" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="32" t="s">
+      <c r="A38" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B38" s="33"/>
-      <c r="C38" s="34"/>
+      <c r="B38" s="34"/>
+      <c r="C38" s="35"/>
       <c r="D38" s="20">
         <f>SUM(E7:H37)</f>
         <v>0</v>

--- a/Zeiterfassung.xlsx
+++ b/Zeiterfassung.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="34">
   <si>
     <t>Datum</t>
   </si>
@@ -126,6 +126,18 @@
   </si>
   <si>
     <t>Testschaltung mit LED</t>
+  </si>
+  <si>
+    <t>Android App</t>
+  </si>
+  <si>
+    <t>Android App + Testen der Sensoren</t>
+  </si>
+  <si>
+    <t>Sivan, Pavic</t>
+  </si>
+  <si>
+    <t>DHCP, Android App, Testen</t>
   </si>
 </sst>
 </file>
@@ -2463,7 +2475,7 @@
   <dimension ref="A2:H43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScale="94" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2819,12 +2831,24 @@
         <f t="shared" si="1"/>
         <v>42079</v>
       </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
+      <c r="C22" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="12">
+        <v>3</v>
+      </c>
+      <c r="F22" s="12">
+        <v>3</v>
+      </c>
+      <c r="G22" s="12">
+        <v>0</v>
+      </c>
+      <c r="H22" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
@@ -2835,12 +2859,24 @@
         <f t="shared" si="1"/>
         <v>42080</v>
       </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
+      <c r="C23" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="12">
+        <v>5</v>
+      </c>
+      <c r="F23" s="12">
+        <v>5</v>
+      </c>
+      <c r="G23" s="12">
+        <v>0</v>
+      </c>
+      <c r="H23" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
@@ -2851,12 +2887,24 @@
         <f t="shared" si="1"/>
         <v>42081</v>
       </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
+      <c r="C24" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="12">
+        <v>3</v>
+      </c>
+      <c r="F24" s="12">
+        <v>3</v>
+      </c>
+      <c r="G24" s="12">
+        <v>0</v>
+      </c>
+      <c r="H24" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
@@ -3078,7 +3126,7 @@
       <c r="C38" s="35"/>
       <c r="D38" s="20">
         <f>SUM(E7:H37)</f>
-        <v>21.5</v>
+        <v>43.5</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Zeiterfassung.xlsx
+++ b/Zeiterfassung.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="228" windowWidth="18540" windowHeight="8892" tabRatio="882" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="228" windowWidth="18540" windowHeight="8892" tabRatio="882" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Januar" sheetId="1" r:id="rId1"/>
@@ -342,7 +342,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -455,6 +455,9 @@
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1137,8 +1140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K49"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1818,8 +1821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H41"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2411,10 +2414,22 @@
         <f>SUM(E4:H34)</f>
         <v>37.6</v>
       </c>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
+      <c r="E35" s="39">
+        <f>SUM(E7:E34)</f>
+        <v>14.9</v>
+      </c>
+      <c r="F35" s="39">
+        <f>SUM(F7:F34)</f>
+        <v>11.1</v>
+      </c>
+      <c r="G35" s="39">
+        <f>SUM(G7:G34)</f>
+        <v>4.8999999999999995</v>
+      </c>
+      <c r="H35" s="39">
+        <f>SUM(H7:H34)</f>
+        <v>6.7</v>
+      </c>
     </row>
     <row r="41" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -2474,8 +2489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="94" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A13" zoomScale="94" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38:H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2559,7 +2574,7 @@
         <v>1.5</v>
       </c>
       <c r="F7" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G7" s="10">
         <v>1</v>
@@ -3126,7 +3141,23 @@
       <c r="C38" s="35"/>
       <c r="D38" s="20">
         <f>SUM(E7:H37)</f>
-        <v>43.5</v>
+        <v>45.5</v>
+      </c>
+      <c r="E38" s="39">
+        <f>SUM(E7:E37)</f>
+        <v>18.5</v>
+      </c>
+      <c r="F38" s="39">
+        <f>SUM(F7:F37)</f>
+        <v>19</v>
+      </c>
+      <c r="G38" s="39">
+        <f>SUM(G7:G37)</f>
+        <v>5</v>
+      </c>
+      <c r="H38" s="39">
+        <f>SUM(H7:H37)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3182,8 +3213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H42"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3740,6 +3771,22 @@
       <c r="C37" s="35"/>
       <c r="D37" s="20">
         <f>SUM(E6:H36)</f>
+        <v>0</v>
+      </c>
+      <c r="E37" s="39">
+        <f>SUM(E7:E36)</f>
+        <v>0</v>
+      </c>
+      <c r="F37" s="39">
+        <f>SUM(F7:F36)</f>
+        <v>0</v>
+      </c>
+      <c r="G37" s="39">
+        <f>SUM(G7:G36)</f>
+        <v>0</v>
+      </c>
+      <c r="H37" s="39">
+        <f>SUM(H7:H36)</f>
         <v>0</v>
       </c>
     </row>

--- a/Zeiterfassung.xlsx
+++ b/Zeiterfassung.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="228" windowWidth="18540" windowHeight="8892" tabRatio="882" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="228" windowWidth="18540" windowHeight="8892" tabRatio="882" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Januar" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="50">
   <si>
     <t>Datum</t>
   </si>
@@ -68,15 +68,6 @@
   </si>
   <si>
     <t>Testen abgeschlossen</t>
-  </si>
-  <si>
-    <t>Vorbereitung des Plüschtiers abgeschlossen</t>
-  </si>
-  <si>
-    <t>Einbau und Verkabeln der Komponenten abgeschlossen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finales Testen (inkl. Fehlerbehebung) des kompletten Plüschtiers </t>
   </si>
   <si>
     <t>Projektabschlussbericht übergeben</t>
@@ -138,6 +129,63 @@
   </si>
   <si>
     <t>DHCP, Android App, Testen</t>
+  </si>
+  <si>
+    <t>App Development - Sensoren Code</t>
+  </si>
+  <si>
+    <t>Produktbeschreibung + Logo</t>
+  </si>
+  <si>
+    <t>Ferien</t>
+  </si>
+  <si>
+    <t>Budapest</t>
+  </si>
+  <si>
+    <t>[Vorbereitung des Plüschtiers abgeschlossen] Budapest</t>
+  </si>
+  <si>
+    <t>Medientechnik - Filmtechnik</t>
+  </si>
+  <si>
+    <t>Erweiterte Tests und Planung</t>
+  </si>
+  <si>
+    <t>Sivan,Pavic</t>
+  </si>
+  <si>
+    <t>Webblog + Software</t>
+  </si>
+  <si>
+    <t>[Einbau und Verkabeln der Komponenten abgeschlossen]</t>
+  </si>
+  <si>
+    <t>Planung - Software</t>
+  </si>
+  <si>
+    <t>Logo neu</t>
+  </si>
+  <si>
+    <t>Planung - Software, App</t>
+  </si>
+  <si>
+    <t>Planung - Software,App</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taster anlöten </t>
+  </si>
+  <si>
+    <t>Frei</t>
+  </si>
+  <si>
+    <t>Planung - Software, App, Hardware vollständig</t>
+  </si>
+  <si>
+    <t>[Finales Testen (inkl. Fehlerbehebung) des kompletten Plüschtiers ], Planung - Software</t>
+  </si>
+  <si>
+    <t>Projekthandbuch start</t>
   </si>
 </sst>
 </file>
@@ -429,6 +477,9 @@
     <xf numFmtId="167" fontId="9" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="165" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -455,9 +506,6 @@
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1141,7 +1189,7 @@
   <dimension ref="A2:K49"/>
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1155,29 +1203,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="21" x14ac:dyDescent="0.4">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
     </row>
     <row r="3" spans="1:11" ht="21" x14ac:dyDescent="0.4">
-      <c r="A3" s="32">
+      <c r="A3" s="33">
         <f>A7</f>
         <v>42005</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
     </row>
     <row r="4" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
@@ -1692,8 +1740,12 @@
       <c r="F35" s="12">
         <v>0.1</v>
       </c>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
+      <c r="G35" s="12">
+        <v>0</v>
+      </c>
+      <c r="H35" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="22">
@@ -1728,11 +1780,11 @@
       <c r="H37" s="26"/>
     </row>
     <row r="38" spans="1:8" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="B38" s="34"/>
-      <c r="C38" s="35"/>
+      <c r="A38" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" s="35"/>
+      <c r="C38" s="36"/>
       <c r="D38" s="20">
         <f>SUM(E7:H37)</f>
         <v>2.6</v>
@@ -1821,8 +1873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1834,29 +1886,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.4">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
     </row>
     <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.4">
-      <c r="A3" s="38">
+      <c r="A3" s="39">
         <f>A7</f>
         <v>42036</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
     </row>
     <row r="4" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
@@ -2026,7 +2078,7 @@
         <v>42044</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D15" s="16"/>
       <c r="E15" s="17"/>
@@ -2044,7 +2096,7 @@
         <v>42045</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="12">
@@ -2070,7 +2122,7 @@
         <v>42046</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="12">
@@ -2160,7 +2212,7 @@
         <v>42051</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D22" s="16"/>
       <c r="E22" s="17">
@@ -2250,7 +2302,7 @@
         <v>42056</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="12">
@@ -2292,7 +2344,7 @@
         <v>42058</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="12">
@@ -2318,7 +2370,7 @@
         <v>42059</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="12">
@@ -2344,17 +2396,21 @@
         <v>42060</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="12">
         <v>2.5</v>
       </c>
-      <c r="F31" s="12"/>
+      <c r="F31" s="12">
+        <v>0</v>
+      </c>
       <c r="G31" s="12">
         <v>0.5</v>
       </c>
-      <c r="H31" s="12"/>
+      <c r="H31" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
@@ -2405,28 +2461,28 @@
       <c r="H34" s="12"/>
     </row>
     <row r="35" spans="1:8" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="B35" s="34"/>
-      <c r="C35" s="35"/>
+      <c r="A35" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" s="35"/>
+      <c r="C35" s="36"/>
       <c r="D35" s="20">
         <f>SUM(E4:H34)</f>
         <v>37.6</v>
       </c>
-      <c r="E35" s="39">
+      <c r="E35" s="30">
         <f>SUM(E7:E34)</f>
         <v>14.9</v>
       </c>
-      <c r="F35" s="39">
+      <c r="F35" s="30">
         <f>SUM(F7:F34)</f>
         <v>11.1</v>
       </c>
-      <c r="G35" s="39">
+      <c r="G35" s="30">
         <f>SUM(G7:G34)</f>
         <v>4.8999999999999995</v>
       </c>
-      <c r="H35" s="39">
+      <c r="H35" s="30">
         <f>SUM(H7:H34)</f>
         <v>6.7</v>
       </c>
@@ -2489,8 +2545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H43"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="94" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38:H38"/>
+    <sheetView topLeftCell="A19" zoomScale="94" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2503,29 +2559,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.4">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
     </row>
     <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.4">
-      <c r="A3" s="32">
+      <c r="A3" s="33">
         <f>A7</f>
         <v>42064</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
     </row>
     <row r="4" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
@@ -2567,7 +2623,7 @@
         <v>42064</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="10">
@@ -2609,7 +2665,7 @@
         <v>42066</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="12">
@@ -2715,7 +2771,7 @@
         <v>42072</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D15" s="16"/>
       <c r="E15" s="17">
@@ -2741,7 +2797,7 @@
         <v>42073</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="12">
@@ -2847,7 +2903,7 @@
         <v>42079</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>8</v>
@@ -2875,10 +2931,10 @@
         <v>42080</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E23" s="12">
         <v>5</v>
@@ -2903,7 +2959,7 @@
         <v>42081</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>9</v>
@@ -2996,12 +3052,22 @@
         <f t="shared" si="1"/>
         <v>42086</v>
       </c>
-      <c r="C29" s="11"/>
+      <c r="C29" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="D29" s="9"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
+      <c r="E29" s="12">
+        <v>2</v>
+      </c>
+      <c r="F29" s="12">
+        <v>2</v>
+      </c>
+      <c r="G29" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="H29" s="12">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
@@ -3028,12 +3094,22 @@
         <f t="shared" si="1"/>
         <v>42088</v>
       </c>
-      <c r="C31" s="11"/>
+      <c r="C31" s="11" t="s">
+        <v>32</v>
+      </c>
       <c r="D31" s="9"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
+      <c r="E31" s="12">
+        <v>2</v>
+      </c>
+      <c r="F31" s="12">
+        <v>1</v>
+      </c>
+      <c r="G31" s="12">
+        <v>2</v>
+      </c>
+      <c r="H31" s="12">
+        <v>2</v>
+      </c>
     </row>
     <row r="32" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
@@ -3076,7 +3152,9 @@
         <f t="shared" si="1"/>
         <v>42091</v>
       </c>
-      <c r="C34" s="11"/>
+      <c r="C34" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="D34" s="9"/>
       <c r="E34" s="12"/>
       <c r="F34" s="12"/>
@@ -3108,14 +3186,16 @@
         <f t="shared" si="1"/>
         <v>42093</v>
       </c>
-      <c r="C36" s="11"/>
+      <c r="C36" s="11" t="s">
+        <v>34</v>
+      </c>
       <c r="D36" s="9"/>
       <c r="E36" s="12"/>
       <c r="F36" s="12"/>
       <c r="G36" s="12"/>
       <c r="H36" s="12"/>
     </row>
-    <row r="37" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="13">
         <f t="shared" si="0"/>
         <v>42094</v>
@@ -3125,7 +3205,7 @@
         <v>42094</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="D37" s="16"/>
       <c r="E37" s="27"/>
@@ -3134,30 +3214,30 @@
       <c r="H37" s="27"/>
     </row>
     <row r="38" spans="1:8" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="B38" s="34"/>
-      <c r="C38" s="35"/>
+      <c r="A38" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" s="35"/>
+      <c r="C38" s="36"/>
       <c r="D38" s="20">
         <f>SUM(E7:H37)</f>
-        <v>45.5</v>
-      </c>
-      <c r="E38" s="39">
+        <v>57.5</v>
+      </c>
+      <c r="E38" s="30">
         <f>SUM(E7:E37)</f>
-        <v>18.5</v>
-      </c>
-      <c r="F38" s="39">
+        <v>22.5</v>
+      </c>
+      <c r="F38" s="30">
         <f>SUM(F7:F37)</f>
-        <v>19</v>
-      </c>
-      <c r="G38" s="39">
+        <v>22</v>
+      </c>
+      <c r="G38" s="30">
         <f>SUM(G7:G37)</f>
-        <v>5</v>
-      </c>
-      <c r="H38" s="39">
+        <v>7.5</v>
+      </c>
+      <c r="H38" s="30">
         <f>SUM(H7:H37)</f>
-        <v>3</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3213,8 +3293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H42"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3227,29 +3307,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.4">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
     </row>
     <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.4">
-      <c r="A3" s="32">
+      <c r="A3" s="33">
         <f>A7</f>
         <v>42095</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
     </row>
     <row r="4" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
@@ -3290,7 +3370,9 @@
         <f>A7</f>
         <v>42095</v>
       </c>
-      <c r="C7" s="8"/>
+      <c r="C7" s="8" t="s">
+        <v>34</v>
+      </c>
       <c r="D7" s="9"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
@@ -3306,12 +3388,24 @@
         <f>B7+1</f>
         <v>42096</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
+      <c r="C8" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="10">
+        <v>2</v>
+      </c>
+      <c r="F8" s="10">
+        <v>2</v>
+      </c>
+      <c r="G8" s="10">
+        <v>2</v>
+      </c>
+      <c r="H8" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
@@ -3361,7 +3455,7 @@
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
     </row>
-    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <f t="shared" si="0"/>
         <v>42100</v>
@@ -3370,12 +3464,24 @@
         <f t="shared" si="1"/>
         <v>42100</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
+      <c r="C12" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="12">
+        <v>2</v>
+      </c>
+      <c r="F12" s="12">
+        <v>2</v>
+      </c>
+      <c r="G12" s="12">
+        <v>0</v>
+      </c>
+      <c r="H12" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
@@ -3402,12 +3508,22 @@
         <f t="shared" si="1"/>
         <v>42102</v>
       </c>
-      <c r="C14" s="11"/>
+      <c r="C14" s="11" t="s">
+        <v>39</v>
+      </c>
       <c r="D14" s="9"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
+      <c r="E14" s="12">
+        <v>1</v>
+      </c>
+      <c r="F14" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="G14" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="H14" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
@@ -3482,12 +3598,22 @@
         <f t="shared" si="1"/>
         <v>42107</v>
       </c>
-      <c r="C19" s="11"/>
+      <c r="C19" s="11" t="s">
+        <v>41</v>
+      </c>
       <c r="D19" s="9"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
+      <c r="E19" s="12">
+        <v>2</v>
+      </c>
+      <c r="F19" s="12">
+        <v>2</v>
+      </c>
+      <c r="G19" s="12">
+        <v>2</v>
+      </c>
+      <c r="H19" s="12">
+        <v>2</v>
+      </c>
     </row>
     <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
@@ -3498,12 +3624,22 @@
         <f t="shared" si="1"/>
         <v>42108</v>
       </c>
-      <c r="C20" s="11"/>
+      <c r="C20" s="11" t="s">
+        <v>42</v>
+      </c>
       <c r="D20" s="9"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
+      <c r="E20" s="12">
+        <v>0</v>
+      </c>
+      <c r="F20" s="12">
+        <v>0</v>
+      </c>
+      <c r="G20" s="12">
+        <v>1</v>
+      </c>
+      <c r="H20" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:8" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
@@ -3515,7 +3651,7 @@
         <v>42109</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="D21" s="16"/>
       <c r="E21" s="17"/>
@@ -3596,12 +3732,24 @@
         <f t="shared" si="1"/>
         <v>42114</v>
       </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
+      <c r="C26" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="12">
+        <v>2</v>
+      </c>
+      <c r="F26" s="12">
+        <v>2</v>
+      </c>
+      <c r="G26" s="12">
+        <v>0</v>
+      </c>
+      <c r="H26" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
@@ -3628,12 +3776,22 @@
         <f t="shared" si="1"/>
         <v>42116</v>
       </c>
-      <c r="C28" s="11"/>
+      <c r="C28" s="11" t="s">
+        <v>44</v>
+      </c>
       <c r="D28" s="9"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
+      <c r="E28" s="12">
+        <v>2</v>
+      </c>
+      <c r="F28" s="12">
+        <v>2</v>
+      </c>
+      <c r="G28" s="12">
+        <v>1</v>
+      </c>
+      <c r="H28" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
@@ -3708,12 +3866,22 @@
         <f t="shared" si="1"/>
         <v>42121</v>
       </c>
-      <c r="C33" s="11"/>
+      <c r="C33" s="11" t="s">
+        <v>43</v>
+      </c>
       <c r="D33" s="9"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
+      <c r="E33" s="12">
+        <v>2</v>
+      </c>
+      <c r="F33" s="12">
+        <v>2</v>
+      </c>
+      <c r="G33" s="12">
+        <v>2</v>
+      </c>
+      <c r="H33" s="12">
+        <v>2</v>
+      </c>
     </row>
     <row r="34" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
@@ -3724,12 +3892,24 @@
         <f t="shared" si="1"/>
         <v>42122</v>
       </c>
-      <c r="C34" s="11"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
+      <c r="C34" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="12">
+        <v>0</v>
+      </c>
+      <c r="F34" s="12">
+        <v>2</v>
+      </c>
+      <c r="G34" s="12">
+        <v>2</v>
+      </c>
+      <c r="H34" s="12">
+        <v>2</v>
+      </c>
     </row>
     <row r="35" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
@@ -3740,12 +3920,22 @@
         <f t="shared" si="1"/>
         <v>42123</v>
       </c>
-      <c r="C35" s="11"/>
+      <c r="C35" s="11" t="s">
+        <v>41</v>
+      </c>
       <c r="D35" s="9"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
+      <c r="E35" s="12">
+        <v>2</v>
+      </c>
+      <c r="F35" s="12">
+        <v>2</v>
+      </c>
+      <c r="G35" s="12">
+        <v>2</v>
+      </c>
+      <c r="H35" s="12">
+        <v>2</v>
+      </c>
     </row>
     <row r="36" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="6">
@@ -3764,30 +3954,30 @@
       <c r="H36" s="12"/>
     </row>
     <row r="37" spans="1:8" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="B37" s="34"/>
-      <c r="C37" s="35"/>
+      <c r="A37" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="B37" s="35"/>
+      <c r="C37" s="36"/>
       <c r="D37" s="20">
         <f>SUM(E6:H36)</f>
-        <v>0</v>
-      </c>
-      <c r="E37" s="39">
+        <v>56</v>
+      </c>
+      <c r="E37" s="30">
         <f>SUM(E7:E36)</f>
-        <v>0</v>
-      </c>
-      <c r="F37" s="39">
+        <v>15</v>
+      </c>
+      <c r="F37" s="30">
         <f>SUM(F7:F36)</f>
-        <v>0</v>
-      </c>
-      <c r="G37" s="39">
+        <v>17.5</v>
+      </c>
+      <c r="G37" s="30">
         <f>SUM(G7:G36)</f>
-        <v>0</v>
-      </c>
-      <c r="H37" s="39">
+        <v>13.5</v>
+      </c>
+      <c r="H37" s="30">
         <f>SUM(H7:H36)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3835,8 +4025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3848,29 +4038,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.4">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
     </row>
     <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.4">
-      <c r="A3" s="38">
+      <c r="A3" s="39">
         <f>A7</f>
         <v>42125</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
     </row>
     <row r="4" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
@@ -3911,7 +4101,9 @@
         <f>A7</f>
         <v>42125</v>
       </c>
-      <c r="C7" s="8"/>
+      <c r="C7" s="8" t="s">
+        <v>46</v>
+      </c>
       <c r="D7" s="9"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
@@ -3959,12 +4151,24 @@
         <f t="shared" si="1"/>
         <v>42128</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
+      <c r="C10" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="12">
+        <v>2</v>
+      </c>
+      <c r="F10" s="12">
+        <v>2</v>
+      </c>
+      <c r="G10" s="12">
+        <v>0</v>
+      </c>
+      <c r="H10" s="12">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
@@ -3982,7 +4186,7 @@
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
     </row>
-    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <f t="shared" si="0"/>
         <v>42130</v>
@@ -3991,12 +4195,24 @@
         <f t="shared" si="1"/>
         <v>42130</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
+      <c r="C12" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="12">
+        <v>2</v>
+      </c>
+      <c r="F12" s="12">
+        <v>2</v>
+      </c>
+      <c r="G12" s="12">
+        <v>0</v>
+      </c>
+      <c r="H12" s="12">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
@@ -4072,13 +4288,21 @@
         <v>42135</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="D17" s="16"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
+      <c r="E17" s="17">
+        <v>2</v>
+      </c>
+      <c r="F17" s="17">
+        <v>2</v>
+      </c>
+      <c r="G17" s="17">
+        <v>2</v>
+      </c>
+      <c r="H17" s="17">
+        <v>2</v>
+      </c>
     </row>
     <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
@@ -4089,12 +4313,22 @@
         <f t="shared" si="1"/>
         <v>42136</v>
       </c>
-      <c r="C18" s="11"/>
+      <c r="C18" s="11" t="s">
+        <v>49</v>
+      </c>
       <c r="D18" s="9"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
+      <c r="E18" s="12">
+        <v>2</v>
+      </c>
+      <c r="F18" s="12">
+        <v>0</v>
+      </c>
+      <c r="G18" s="12">
+        <v>0</v>
+      </c>
+      <c r="H18" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
@@ -4298,7 +4532,7 @@
         <v>42149</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D31" s="16"/>
       <c r="E31" s="17"/>
@@ -4403,14 +4637,14 @@
       <c r="H37" s="26"/>
     </row>
     <row r="38" spans="1:8" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="B38" s="34"/>
-      <c r="C38" s="35"/>
+      <c r="A38" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" s="35"/>
+      <c r="C38" s="36"/>
       <c r="D38" s="20">
         <f>SUM(E7:H37)</f>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>

--- a/Zeiterfassung.xlsx
+++ b/Zeiterfassung.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="51">
   <si>
     <t>Datum</t>
   </si>
@@ -185,7 +185,10 @@
     <t>[Finales Testen (inkl. Fehlerbehebung) des kompletten Plüschtiers ], Planung - Software</t>
   </si>
   <si>
-    <t>Projekthandbuch start</t>
+    <t>Projekthandbuch laufend</t>
+  </si>
+  <si>
+    <t>Software</t>
   </si>
 </sst>
 </file>
@@ -4025,8 +4028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4419,12 +4422,24 @@
         <f t="shared" si="1"/>
         <v>42142</v>
       </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
+      <c r="C24" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="12">
+        <v>2</v>
+      </c>
+      <c r="F24" s="12">
+        <v>2</v>
+      </c>
+      <c r="G24" s="12">
+        <v>0</v>
+      </c>
+      <c r="H24" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
@@ -4644,7 +4659,7 @@
       <c r="C38" s="36"/>
       <c r="D38" s="20">
         <f>SUM(E7:H37)</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>

--- a/Zeiterfassung.xlsx
+++ b/Zeiterfassung.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="53">
   <si>
     <t>Datum</t>
   </si>
@@ -68,9 +68,6 @@
   </si>
   <si>
     <t>Testen abgeschlossen</t>
-  </si>
-  <si>
-    <t>Projektabschlussbericht übergeben</t>
   </si>
   <si>
     <t>Raspbian aufgesetzt</t>
@@ -190,6 +187,15 @@
   <si>
     <t>Software</t>
   </si>
+  <si>
+    <t>Projektabschlussbericht übergeben FREI</t>
+  </si>
+  <si>
+    <t>Software/Hardware</t>
+  </si>
+  <si>
+    <t>Software/Hardware,Projekthandbuch</t>
+  </si>
 </sst>
 </file>
 
@@ -201,7 +207,7 @@
     <numFmt numFmtId="166" formatCode="dd/\ mmmm"/>
     <numFmt numFmtId="167" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -252,6 +258,12 @@
     </font>
     <font>
       <strike/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -393,7 +405,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -509,6 +521,9 @@
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2081,7 +2096,7 @@
         <v>42044</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D15" s="16"/>
       <c r="E15" s="17"/>
@@ -2099,7 +2114,7 @@
         <v>42045</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="12">
@@ -2125,7 +2140,7 @@
         <v>42046</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="12">
@@ -2215,7 +2230,7 @@
         <v>42051</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D22" s="16"/>
       <c r="E22" s="17">
@@ -2305,7 +2320,7 @@
         <v>42056</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="12">
@@ -2347,7 +2362,7 @@
         <v>42058</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="12">
@@ -2373,7 +2388,7 @@
         <v>42059</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="12">
@@ -2399,7 +2414,7 @@
         <v>42060</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="12">
@@ -2626,7 +2641,7 @@
         <v>42064</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="10">
@@ -2668,7 +2683,7 @@
         <v>42066</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="12">
@@ -2774,7 +2789,7 @@
         <v>42072</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" s="16"/>
       <c r="E15" s="17">
@@ -2800,7 +2815,7 @@
         <v>42073</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="12">
@@ -2906,7 +2921,7 @@
         <v>42079</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>8</v>
@@ -2934,10 +2949,10 @@
         <v>42080</v>
       </c>
       <c r="C23" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>29</v>
       </c>
       <c r="E23" s="12">
         <v>5</v>
@@ -2962,7 +2977,7 @@
         <v>42081</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>9</v>
@@ -3056,7 +3071,7 @@
         <v>42086</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="12">
@@ -3098,7 +3113,7 @@
         <v>42088</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="12">
@@ -3156,7 +3171,7 @@
         <v>42091</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D34" s="9"/>
       <c r="E34" s="12"/>
@@ -3190,7 +3205,7 @@
         <v>42093</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="12"/>
@@ -3208,7 +3223,7 @@
         <v>42094</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D37" s="16"/>
       <c r="E37" s="27"/>
@@ -3374,7 +3389,7 @@
         <v>42095</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="10"/>
@@ -3392,7 +3407,7 @@
         <v>42096</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>8</v>
@@ -3468,10 +3483,10 @@
         <v>42100</v>
       </c>
       <c r="C12" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>37</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>38</v>
       </c>
       <c r="E12" s="12">
         <v>2</v>
@@ -3512,7 +3527,7 @@
         <v>42102</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="12">
@@ -3602,7 +3617,7 @@
         <v>42107</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="12">
@@ -3628,7 +3643,7 @@
         <v>42108</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="12">
@@ -3654,7 +3669,7 @@
         <v>42109</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D21" s="16"/>
       <c r="E21" s="17"/>
@@ -3736,7 +3751,7 @@
         <v>42114</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D26" s="9" t="s">
         <v>8</v>
@@ -3780,7 +3795,7 @@
         <v>42116</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="12">
@@ -3870,7 +3885,7 @@
         <v>42121</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="12">
@@ -3896,7 +3911,7 @@
         <v>42122</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D34" s="9" t="s">
         <v>6</v>
@@ -3924,7 +3939,7 @@
         <v>42123</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="12">
@@ -4028,8 +4043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4105,7 +4120,7 @@
         <v>42125</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="10"/>
@@ -4155,7 +4170,7 @@
         <v>42128</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>8</v>
@@ -4199,7 +4214,7 @@
         <v>42130</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>8</v>
@@ -4291,7 +4306,7 @@
         <v>42135</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D17" s="16"/>
       <c r="E17" s="17">
@@ -4317,7 +4332,7 @@
         <v>42136</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="12">
@@ -4423,7 +4438,7 @@
         <v>42142</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>8</v>
@@ -4466,12 +4481,24 @@
         <f t="shared" si="1"/>
         <v>42144</v>
       </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
+      <c r="C26" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="12">
+        <v>2</v>
+      </c>
+      <c r="F26" s="12">
+        <v>2</v>
+      </c>
+      <c r="G26" s="12">
+        <v>0</v>
+      </c>
+      <c r="H26" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
@@ -4546,8 +4573,8 @@
         <f t="shared" si="1"/>
         <v>42149</v>
       </c>
-      <c r="C31" s="15" t="s">
-        <v>14</v>
+      <c r="C31" s="40" t="s">
+        <v>50</v>
       </c>
       <c r="D31" s="16"/>
       <c r="E31" s="17"/>
@@ -4580,14 +4607,24 @@
         <f t="shared" si="1"/>
         <v>42151</v>
       </c>
-      <c r="C33" s="11"/>
+      <c r="C33" s="11" t="s">
+        <v>51</v>
+      </c>
       <c r="D33" s="9"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-    </row>
-    <row r="34" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="E33" s="12">
+        <v>4</v>
+      </c>
+      <c r="F33" s="12">
+        <v>2</v>
+      </c>
+      <c r="G33" s="12">
+        <v>2</v>
+      </c>
+      <c r="H33" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <f t="shared" si="0"/>
         <v>42152</v>
@@ -4596,12 +4633,24 @@
         <f t="shared" si="1"/>
         <v>42152</v>
       </c>
-      <c r="C34" s="11"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
+      <c r="C34" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="12">
+        <v>6</v>
+      </c>
+      <c r="F34" s="12">
+        <v>3</v>
+      </c>
+      <c r="G34" s="12">
+        <v>3</v>
+      </c>
+      <c r="H34" s="12">
+        <v>6</v>
+      </c>
     </row>
     <row r="35" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
@@ -4659,7 +4708,7 @@
       <c r="C38" s="36"/>
       <c r="D38" s="20">
         <f>SUM(E7:H37)</f>
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
@@ -4709,5 +4758,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Zeiterfassung.xlsx
+++ b/Zeiterfassung.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="62">
   <si>
     <t>Datum</t>
   </si>
@@ -196,6 +196,33 @@
   <si>
     <t>Software/Hardware,Projekthandbuch</t>
   </si>
+  <si>
+    <t>Anmerkung (Ucel): Zeiterfassung war jeder Zeit für das gesamte Team ersichtlich</t>
+  </si>
+  <si>
+    <t>Bugfix + Projekthandbuch</t>
+  </si>
+  <si>
+    <t>App finalisieren</t>
+  </si>
+  <si>
+    <t>Finalisierung des Projektes und der Dokumente</t>
+  </si>
+  <si>
+    <t>Gesamtes Projekt</t>
+  </si>
+  <si>
+    <t>87,5 h</t>
+  </si>
+  <si>
+    <t>63,5 h</t>
+  </si>
+  <si>
+    <t>36,3 h</t>
+  </si>
+  <si>
+    <t>39,7h</t>
+  </si>
 </sst>
 </file>
 
@@ -203,14 +230,21 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="mmmm\ yyyy"/>
-    <numFmt numFmtId="165" formatCode="[$-407]ddd"/>
+    <numFmt numFmtId="0" formatCode="[$-407]ddd"/>
     <numFmt numFmtId="166" formatCode="dd/\ mmmm"/>
     <numFmt numFmtId="167" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -268,8 +302,20 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -288,8 +334,19 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -401,135 +458,239 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="51">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="10" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="11" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="20 % - Akzent1" xfId="2" builtinId="30"/>
+    <cellStyle name="Akzent1" xfId="1" builtinId="29"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="34">
+  <dxfs count="35">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1206,8 +1367,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K49"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1216,34 +1377,38 @@
     <col min="2" max="2" width="14.109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="29.77734375" style="2" customWidth="1"/>
     <col min="4" max="4" width="18.88671875" style="21" customWidth="1"/>
-    <col min="5" max="9" width="19.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="19.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.33203125" style="2" customWidth="1"/>
     <col min="10" max="16384" width="11.5546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="21" x14ac:dyDescent="0.4">
-      <c r="A2" s="31" t="s">
+    <row r="2" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-    </row>
-    <row r="3" spans="1:11" ht="21" x14ac:dyDescent="0.4">
-      <c r="A3" s="33">
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+    </row>
+    <row r="3" spans="1:11" ht="28.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="34">
         <f>A7</f>
         <v>42005</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="41" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="4" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
@@ -1798,14 +1963,30 @@
       <c r="H37" s="26"/>
     </row>
     <row r="38" spans="1:8" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="B38" s="35"/>
-      <c r="C38" s="36"/>
+      <c r="A38" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" s="36"/>
+      <c r="C38" s="37"/>
       <c r="D38" s="20">
         <f>SUM(E7:H37)</f>
         <v>2.6</v>
+      </c>
+      <c r="E38" s="30">
+        <f>SUM(E32:E36)</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F38" s="30">
+        <f t="shared" ref="F38:H38" si="2">SUM(F32:F36)</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G38" s="30">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="H38" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -1847,7 +2028,7 @@
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="A38:C38"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="A7:D37">
     <cfRule type="expression" dxfId="33" priority="7" stopIfTrue="1">
       <formula>WEEKDAY($A7,2)&gt;5</formula>
@@ -1892,7 +2073,7 @@
   <dimension ref="A2:H41"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1904,29 +2085,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.4">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
     </row>
     <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.4">
-      <c r="A3" s="39">
+      <c r="A3" s="40">
         <f>A7</f>
         <v>42036</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
     </row>
     <row r="4" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
@@ -2479,11 +2660,11 @@
       <c r="H34" s="12"/>
     </row>
     <row r="35" spans="1:8" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="B35" s="35"/>
-      <c r="C35" s="36"/>
+      <c r="A35" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" s="36"/>
+      <c r="C35" s="37"/>
       <c r="D35" s="20">
         <f>SUM(E4:H34)</f>
         <v>37.6</v>
@@ -2512,7 +2693,7 @@
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="A35:C35"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="A7:B34">
     <cfRule type="expression" dxfId="27" priority="8" stopIfTrue="1">
       <formula>WEEKDAY($A7,2)&gt;5</formula>
@@ -2577,29 +2758,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.4">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
     </row>
     <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.4">
-      <c r="A3" s="33">
+      <c r="A3" s="34">
         <f>A7</f>
         <v>42064</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
     </row>
     <row r="4" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
@@ -3232,11 +3413,11 @@
       <c r="H37" s="27"/>
     </row>
     <row r="38" spans="1:8" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="B38" s="35"/>
-      <c r="C38" s="36"/>
+      <c r="A38" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" s="36"/>
+      <c r="C38" s="37"/>
       <c r="D38" s="20">
         <f>SUM(E7:H37)</f>
         <v>57.5</v>
@@ -3265,7 +3446,7 @@
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="A38:C38"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="A7:B37">
     <cfRule type="expression" dxfId="19" priority="7" stopIfTrue="1">
       <formula>WEEKDAY($A7,2)&gt;5</formula>
@@ -3325,29 +3506,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.4">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
     </row>
     <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.4">
-      <c r="A3" s="33">
+      <c r="A3" s="34">
         <f>A7</f>
         <v>42095</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
     </row>
     <row r="4" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
@@ -3972,11 +4153,11 @@
       <c r="H36" s="12"/>
     </row>
     <row r="37" spans="1:8" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="B37" s="35"/>
-      <c r="C37" s="36"/>
+      <c r="A37" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="B37" s="36"/>
+      <c r="C37" s="37"/>
       <c r="D37" s="20">
         <f>SUM(E6:H36)</f>
         <v>56</v>
@@ -4041,10 +4222,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H44"/>
+  <dimension ref="A2:O44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4053,39 +4234,71 @@
     <col min="2" max="2" width="14.109375" customWidth="1"/>
     <col min="3" max="3" width="28.44140625" customWidth="1"/>
     <col min="4" max="4" width="18.44140625" customWidth="1"/>
+    <col min="12" max="12" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.4">
-      <c r="A2" s="37" t="s">
+    <row r="2" spans="1:15" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-    </row>
-    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.4">
-      <c r="A3" s="39">
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+    </row>
+    <row r="3" spans="1:15" ht="21" x14ac:dyDescent="0.4">
+      <c r="A3" s="40">
         <f>A7</f>
         <v>42125</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-    </row>
-    <row r="4" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="L3" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="50"/>
+    </row>
+    <row r="4" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:8" ht="36.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L4" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="N4" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="O4" s="44" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L5" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="M5" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="N5" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="O5" s="47" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="36.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
         <v>3</v>
       </c>
@@ -4111,7 +4324,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>42125</v>
       </c>
@@ -4128,7 +4341,7 @@
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
     </row>
-    <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <f>A7+1</f>
         <v>42126</v>
@@ -4144,7 +4357,7 @@
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
     </row>
-    <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <f t="shared" ref="A9:A37" si="0">A8+1</f>
         <v>42127</v>
@@ -4160,7 +4373,7 @@
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
     </row>
-    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <f t="shared" si="0"/>
         <v>42128</v>
@@ -4188,7 +4401,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <f t="shared" si="0"/>
         <v>42129</v>
@@ -4204,7 +4417,7 @@
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
     </row>
-    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <f t="shared" si="0"/>
         <v>42130</v>
@@ -4232,7 +4445,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <f t="shared" si="0"/>
         <v>42131</v>
@@ -4248,7 +4461,7 @@
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
     </row>
-    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <f t="shared" si="0"/>
         <v>42132</v>
@@ -4264,7 +4477,7 @@
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
     </row>
-    <row r="15" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <f t="shared" si="0"/>
         <v>42133</v>
@@ -4280,7 +4493,7 @@
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
     </row>
-    <row r="16" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <f t="shared" si="0"/>
         <v>42134</v>
@@ -4573,7 +4786,7 @@
         <f t="shared" si="1"/>
         <v>42149</v>
       </c>
-      <c r="C31" s="40" t="s">
+      <c r="C31" s="31" t="s">
         <v>50</v>
       </c>
       <c r="D31" s="16"/>
@@ -4640,7 +4853,7 @@
         <v>7</v>
       </c>
       <c r="E34" s="12">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F34" s="12">
         <v>3</v>
@@ -4649,7 +4862,7 @@
         <v>3</v>
       </c>
       <c r="H34" s="12">
-        <v>6</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="15" x14ac:dyDescent="0.25">
@@ -4661,12 +4874,22 @@
         <f t="shared" si="1"/>
         <v>42153</v>
       </c>
-      <c r="C35" s="11"/>
+      <c r="C35" s="11" t="s">
+        <v>54</v>
+      </c>
       <c r="D35" s="9"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
+      <c r="E35" s="12">
+        <v>2</v>
+      </c>
+      <c r="F35" s="12">
+        <v>2</v>
+      </c>
+      <c r="G35" s="12">
+        <v>2</v>
+      </c>
+      <c r="H35" s="12">
+        <v>2</v>
+      </c>
     </row>
     <row r="36" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="6">
@@ -4677,14 +4900,20 @@
         <f t="shared" si="1"/>
         <v>42154</v>
       </c>
-      <c r="C36" s="11"/>
+      <c r="C36" s="11" t="s">
+        <v>55</v>
+      </c>
       <c r="D36" s="9"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
+      <c r="E36" s="12">
+        <v>4</v>
+      </c>
+      <c r="F36" s="12">
+        <v>4</v>
+      </c>
       <c r="G36" s="12"/>
       <c r="H36" s="12"/>
     </row>
-    <row r="37" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="6">
         <f t="shared" si="0"/>
         <v>42155</v>
@@ -4693,34 +4922,57 @@
         <f t="shared" si="1"/>
         <v>42155</v>
       </c>
-      <c r="C37" s="25"/>
+      <c r="C37" s="25" t="s">
+        <v>56</v>
+      </c>
       <c r="D37" s="9"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="26"/>
+      <c r="E37" s="26">
+        <v>2</v>
+      </c>
+      <c r="F37" s="26">
+        <v>3</v>
+      </c>
+      <c r="G37" s="26">
+        <v>1</v>
+      </c>
+      <c r="H37" s="26">
+        <v>0</v>
+      </c>
     </row>
     <row r="38" spans="1:8" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="B38" s="35"/>
-      <c r="C38" s="36"/>
+      <c r="A38" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" s="36"/>
+      <c r="C38" s="37"/>
       <c r="D38" s="20">
         <f>SUM(E7:H37)</f>
-        <v>58</v>
-      </c>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
+        <v>85.5</v>
+      </c>
+      <c r="E38" s="30">
+        <f>SUM(E7:E37)</f>
+        <v>34</v>
+      </c>
+      <c r="F38" s="30">
+        <f t="shared" ref="F38:H38" si="2">SUM(F7:F37)</f>
+        <v>24</v>
+      </c>
+      <c r="G38" s="30">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="H38" s="30">
+        <f t="shared" si="2"/>
+        <v>17.5</v>
+      </c>
     </row>
     <row r="44" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="A38:C38"/>
+    <mergeCell ref="L3:O3"/>
   </mergeCells>
   <conditionalFormatting sqref="A7:B37">
     <cfRule type="expression" dxfId="6" priority="7" stopIfTrue="1">
